--- a/dist/ResultsDataAfterSteps.xlsx
+++ b/dist/ResultsDataAfterSteps.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="11_B00C2D506B174088AC03A56CAC58C51686C01770" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FA40A0-CEF3-4A14-B193-94BFA1D42466}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Report" sheetId="1" r:id="rId1"/>
@@ -3797,6 +3797,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4146,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="I48" zoomScale="165" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13876,8 +13877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15050,7 +15051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/dist/ResultsDataAfterSteps.xlsx
+++ b/dist/ResultsDataAfterSteps.xlsx
@@ -4147,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I48" zoomScale="165" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
